--- a/data/trans_dic/P22_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22_R3-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01205345668684254</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.005702794978069463</v>
+        <v>0.005702794978069462</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02901463998320618</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00910076751764833</v>
+        <v>0.009128090306905316</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007423567865377416</v>
+        <v>0.007150063383316865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005322271043308834</v>
+        <v>0.006398729865359352</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.001280559592170716</v>
+        <v>0.001731531521361403</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0201443561837125</v>
+        <v>0.02072317958722585</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00903651912912019</v>
+        <v>0.00891109596590919</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005029118662524438</v>
+        <v>0.004836934364139993</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.00404684803182744</v>
+        <v>0.004072960491386193</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01707706346503787</v>
+        <v>0.01781320282115468</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.009968790617507313</v>
+        <v>0.01020698402523708</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.00692019221794979</v>
+        <v>0.006723084522026468</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.004046311860042725</v>
+        <v>0.004091603020836148</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02430085431201376</v>
+        <v>0.02464997833550767</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02422109455440038</v>
+        <v>0.02333034123491774</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02056182163427074</v>
+        <v>0.02315193727658983</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01396363551554483</v>
+        <v>0.01495022937317015</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03878126409909165</v>
+        <v>0.04028181274581993</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02388427380403327</v>
+        <v>0.02355362435776525</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01894515136192234</v>
+        <v>0.01866950143545692</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01394511803203713</v>
+        <v>0.01408401142521323</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02900107500995534</v>
+        <v>0.02972233993892842</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02091122211654203</v>
+        <v>0.02116352841101935</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01787541897682792</v>
+        <v>0.01734138675968317</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0119040709117789</v>
+        <v>0.01201282512424849</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03398901577357005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03179388315666126</v>
+        <v>0.03179388315666125</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03826688163665616</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02081562197548885</v>
+        <v>0.02191358216707277</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03201733268959009</v>
+        <v>0.0317433805663631</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02661218999648516</v>
+        <v>0.02625805859163648</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02421841823604202</v>
+        <v>0.0245560159030751</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02943795689516347</v>
+        <v>0.02887209058428392</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02517264669993459</v>
+        <v>0.02515400617568602</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01836217651525865</v>
+        <v>0.01840354062820166</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01230395101357274</v>
+        <v>0.01251132495473581</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02751357808562513</v>
+        <v>0.02703149126181146</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03069604641524691</v>
+        <v>0.03143767904754288</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02423951907691984</v>
+        <v>0.02402358595776538</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02024619821604333</v>
+        <v>0.02012986831864251</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03750014411650991</v>
+        <v>0.03904449523833152</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05210568528705886</v>
+        <v>0.05161755537077271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04325179609654041</v>
+        <v>0.04239902537916262</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04155349956477911</v>
+        <v>0.04268093049263307</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04894779534757059</v>
+        <v>0.04854442002541095</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04386374961033038</v>
+        <v>0.04357565289526107</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03334595108811565</v>
+        <v>0.03269403005426926</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02146907726605795</v>
+        <v>0.02200313911632973</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03998490192747477</v>
+        <v>0.03958820758588738</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04475877309873543</v>
+        <v>0.04502314138756389</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03534387760139798</v>
+        <v>0.03517510305656181</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02992473312396214</v>
+        <v>0.03023756857728009</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1406557931885007</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07790151461852107</v>
+        <v>0.07790151461852106</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.09921471985039862</v>
@@ -969,7 +969,7 @@
         <v>0.1268238476133207</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07964280386135759</v>
+        <v>0.07964280386135758</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09511516528213267</v>
+        <v>0.09583491846501331</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1040234485348193</v>
+        <v>0.1038711367179489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1112389538647416</v>
+        <v>0.1121008065223742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0593471131322138</v>
+        <v>0.05843439858451779</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07587472245251782</v>
+        <v>0.07364413914062333</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06617435805770053</v>
+        <v>0.06665808965824772</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08830616080500403</v>
+        <v>0.08927906571227047</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.065465978484487</v>
+        <v>0.06590653772927559</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09105685017513061</v>
+        <v>0.09341473558852</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09305965842639387</v>
+        <v>0.09332623030619566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1075574008759808</v>
+        <v>0.1065575872150029</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06719433727806277</v>
+        <v>0.06722970577566288</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1522795371995095</v>
+        <v>0.1528357517292669</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1751238666455147</v>
+        <v>0.1772747919569032</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1737982258035674</v>
+        <v>0.1763969687742974</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1031200024794486</v>
+        <v>0.1029433344845074</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1285858511117245</v>
+        <v>0.1300386980182342</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1249955319683394</v>
+        <v>0.1284284037514237</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1445090509795026</v>
+        <v>0.1427831442875699</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.103502560115436</v>
+        <v>0.1006024973683627</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1309547532040093</v>
+        <v>0.1319581361691302</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1414479482681816</v>
+        <v>0.1393347310741434</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1504842500321628</v>
+        <v>0.1492683770011255</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09500114881439983</v>
+        <v>0.09412116790643488</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04635606918174369</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03682561481028959</v>
+        <v>0.0368256148102896</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04326407202593066</v>
@@ -1105,7 +1105,7 @@
         <v>0.04022757313345617</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03205438730825471</v>
+        <v>0.0320543873082547</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03863705193086989</v>
+        <v>0.03873015842646821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03897763265397141</v>
+        <v>0.03914901389776342</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03008597688124968</v>
+        <v>0.03081033785704889</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02802165408435903</v>
+        <v>0.02826189302976977</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02804141249898572</v>
+        <v>0.02798158931518311</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02369940987266973</v>
+        <v>0.02352376304119754</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03560480457860325</v>
+        <v>0.03507549427673794</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03573263277708456</v>
+        <v>0.03518209913751987</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02826798853639619</v>
+        <v>0.02830538665602858</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05524849174962431</v>
+        <v>0.05507513571869963</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05430417889353877</v>
+        <v>0.05452952938770115</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04486558496093004</v>
+        <v>0.04503631639512033</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04166055726848224</v>
+        <v>0.04171101413024442</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04038275473947804</v>
+        <v>0.04106004531907594</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03271662691311968</v>
+        <v>0.03293374171717539</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04588298565771533</v>
+        <v>0.04618886786337915</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04530981056214523</v>
+        <v>0.04548163160173768</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03664313477084531</v>
+        <v>0.03626031160140423</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9364</v>
+        <v>9392</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7235</v>
+        <v>6969</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4009</v>
+        <v>4819</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>741</v>
+        <v>1002</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26475</v>
+        <v>27236</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12089</v>
+        <v>11921</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4982</v>
+        <v>4792</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3324</v>
+        <v>3345</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>40014</v>
+        <v>41739</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>23052</v>
+        <v>23603</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12068</v>
+        <v>11724</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5664</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25003</v>
+        <v>25362</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23607</v>
+        <v>22739</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15487</v>
+        <v>17438</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8078</v>
+        <v>8649</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>50969</v>
+        <v>52941</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>31952</v>
+        <v>31510</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18769</v>
+        <v>18496</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11453</v>
+        <v>11567</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>67954</v>
+        <v>69644</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>48356</v>
+        <v>48939</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>31173</v>
+        <v>30241</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>16664</v>
+        <v>16816</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35175</v>
+        <v>37031</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>62849</v>
+        <v>62311</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>55183</v>
+        <v>54449</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>54021</v>
+        <v>54774</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>46703</v>
+        <v>45805</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>44249</v>
+        <v>44216</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36475</v>
+        <v>36558</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26704</v>
+        <v>27154</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>90144</v>
+        <v>88564</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>114213</v>
+        <v>116973</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>98414</v>
+        <v>97537</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>89101</v>
+        <v>88589</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63370</v>
+        <v>65979</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>102282</v>
+        <v>101324</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>89687</v>
+        <v>87919</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>92688</v>
+        <v>95203</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>77655</v>
+        <v>77015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>77104</v>
+        <v>76597</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>66240</v>
+        <v>64945</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>46595</v>
+        <v>47754</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>131004</v>
+        <v>129704</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>166538</v>
+        <v>167521</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>143498</v>
+        <v>142813</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>131696</v>
+        <v>133072</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>52447</v>
+        <v>52844</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>50054</v>
+        <v>49981</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>60728</v>
+        <v>61198</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>42231</v>
+        <v>41581</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36148</v>
+        <v>35085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>30350</v>
+        <v>30571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>48492</v>
+        <v>49027</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>48109</v>
+        <v>48433</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>93590</v>
+        <v>96014</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>87459</v>
+        <v>87709</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>117782</v>
+        <v>116687</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>97194</v>
+        <v>97245</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>83968</v>
+        <v>84275</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>84266</v>
+        <v>85301</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>94880</v>
+        <v>96299</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>73379</v>
+        <v>73253</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>61260</v>
+        <v>61952</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>57327</v>
+        <v>58901</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>79356</v>
+        <v>78408</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>76062</v>
+        <v>73930</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>134598</v>
+        <v>135629</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>132935</v>
+        <v>130949</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>164790</v>
+        <v>163458</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>137416</v>
+        <v>136143</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>132092</v>
+        <v>132411</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>131460</v>
+        <v>132038</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>105923</v>
+        <v>108473</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>99595</v>
+        <v>100449</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>98882</v>
+        <v>98671</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>88316</v>
+        <v>87662</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>248273</v>
+        <v>244583</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>246519</v>
+        <v>242721</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>204864</v>
+        <v>205135</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>188884</v>
+        <v>188291</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>183152</v>
+        <v>183912</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>157958</v>
+        <v>158559</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>148071</v>
+        <v>148251</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>142402</v>
+        <v>144790</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>121919</v>
+        <v>122728</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>319943</v>
+        <v>322076</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>312592</v>
+        <v>313778</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>265560</v>
+        <v>262786</v>
       </c>
     </row>
     <row r="20">
